--- a/Requisitos e Caso de Uso.xlsx
+++ b/Requisitos e Caso de Uso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Documents\GitHub - LocaLoca Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Documents\GitGub\LocaLoca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>Requisitos Do Sistema</t>
   </si>
@@ -80,30 +80,9 @@
     <t>RE07</t>
   </si>
   <si>
-    <t>O funcionário se autentica para utilizar o sistema</t>
-  </si>
-  <si>
-    <t>O funcionário faz o registro de uma nova mídia</t>
-  </si>
-  <si>
-    <t>O funcionário registra os dados de uma nova locação de uma mídia</t>
-  </si>
-  <si>
-    <t>O funcionário faz o registro de devolução da mídia locada</t>
-  </si>
-  <si>
-    <t>O funcionário registra a venda de uma mídia</t>
-  </si>
-  <si>
     <t>O funcionário poderá configurar o status de qualquer mídia registrada</t>
   </si>
   <si>
-    <t>O funcionário sai do login</t>
-  </si>
-  <si>
-    <t>Deslogar</t>
-  </si>
-  <si>
     <t>UC02</t>
   </si>
   <si>
@@ -122,10 +101,205 @@
     <t>UC07</t>
   </si>
   <si>
-    <t>Funcionário</t>
-  </si>
-  <si>
     <t>Ator(es)</t>
+  </si>
+  <si>
+    <t>Cadastra Cliente</t>
+  </si>
+  <si>
+    <t>RE08</t>
+  </si>
+  <si>
+    <t>Confirma Cadastro</t>
+  </si>
+  <si>
+    <t>RE09</t>
+  </si>
+  <si>
+    <t>Autentica Cliente</t>
+  </si>
+  <si>
+    <t>RE10</t>
+  </si>
+  <si>
+    <t>Pesquisa código</t>
+  </si>
+  <si>
+    <t>RE11</t>
+  </si>
+  <si>
+    <t>Confirma Locação</t>
+  </si>
+  <si>
+    <t>RE12</t>
+  </si>
+  <si>
+    <t>RE13</t>
+  </si>
+  <si>
+    <t>Autenticar funcionário  para utilizar o sistema</t>
+  </si>
+  <si>
+    <t>Registrar nova mídia pelo funcionário</t>
+  </si>
+  <si>
+    <t>Registrar os dados pelo funcionário para loocação de uma nova mídia</t>
+  </si>
+  <si>
+    <t>Registrar devolução mídia pelo funcionário</t>
+  </si>
+  <si>
+    <t>Registrar venda de mídia pelo funcionário</t>
+  </si>
+  <si>
+    <t>Cadastrar cliente pelo funcionário</t>
+  </si>
+  <si>
+    <t>Confirmar dados do registro da mídia</t>
+  </si>
+  <si>
+    <t>Autenticar o cliente para possibilitar a locação de mídia</t>
+  </si>
+  <si>
+    <t>Requisitar o código da mídia para ser pesquisada</t>
+  </si>
+  <si>
+    <t>Exibir dados confirmando a locação de mídia</t>
+  </si>
+  <si>
+    <t>Requisiar CPF do cliete para autentica-lo no sistema</t>
+  </si>
+  <si>
+    <t>RE14</t>
+  </si>
+  <si>
+    <t>Exibir na tela as mídias não devolvidas do cliente</t>
+  </si>
+  <si>
+    <t>RE15</t>
+  </si>
+  <si>
+    <t>RE16</t>
+  </si>
+  <si>
+    <t>Confirmar Pagamento</t>
+  </si>
+  <si>
+    <t>Emitir Comprovante</t>
+  </si>
+  <si>
+    <t>Exibir opções de pagamento e executar o mesmo</t>
+  </si>
+  <si>
+    <t>Emitir comprovante de devolução de mídia</t>
+  </si>
+  <si>
+    <t>RE17</t>
+  </si>
+  <si>
+    <t>RE18</t>
+  </si>
+  <si>
+    <t>RE19</t>
+  </si>
+  <si>
+    <t>RE20</t>
+  </si>
+  <si>
+    <t>RE21</t>
+  </si>
+  <si>
+    <t>RE22</t>
+  </si>
+  <si>
+    <t>RE23</t>
+  </si>
+  <si>
+    <t>Exibe Mídia</t>
+  </si>
+  <si>
+    <t>Exibir informações sobre mídia a ser vendida</t>
+  </si>
+  <si>
+    <t>Confirma Venda</t>
+  </si>
+  <si>
+    <t>Exibir dados confirmando a venda de mídia</t>
+  </si>
+  <si>
+    <t>Emite Nota</t>
+  </si>
+  <si>
+    <t>Exibe Pendência</t>
+  </si>
+  <si>
+    <t>Emitir nota fiscal com  informações da locação</t>
+  </si>
+  <si>
+    <t>Exibir tela de secesso no cadastro</t>
+  </si>
+  <si>
+    <t>Cadastra Funcionário</t>
+  </si>
+  <si>
+    <t>Registrar um novo funcionário</t>
+  </si>
+  <si>
+    <t>Casos De Uso</t>
+  </si>
+  <si>
+    <t>UC08</t>
+  </si>
+  <si>
+    <t>UC09</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t>UC14</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>UC18</t>
+  </si>
+  <si>
+    <t>UC19</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>UC21</t>
+  </si>
+  <si>
+    <t>UC22</t>
+  </si>
+  <si>
+    <t>UC23</t>
+  </si>
+  <si>
+    <t>Funcionário ou gerente</t>
+  </si>
+  <si>
+    <t>Gerente</t>
   </si>
 </sst>
 </file>
@@ -468,17 +642,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" x14ac:dyDescent="0.5">
@@ -504,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -515,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -526,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -537,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -548,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -559,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -570,26 +744,40 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -597,68 +785,406 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
         <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
